--- a/biology/Zoologie/Amatitlania_kanna/Amatitlania_kanna.xlsx
+++ b/biology/Zoologie/Amatitlania_kanna/Amatitlania_kanna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amatitlania kanna est un poisson de la famille des cichlidés et de l'ordre des Cichliformes. À ne pas confondre avec Amatitlania nigrofasciata.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce de cichlidae est endémique d'Amérique centrale, se rencontre uniquement au Panama[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de cichlidae est endémique d'Amérique centrale, se rencontre uniquement au Panama.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amatitlania kanna peut mesurer jusqu'à 83 mm, queue non comprise[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amatitlania kanna peut mesurer jusqu'à 83 mm, queue non comprise.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Croisement, hybridation, sélection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est impératif de maintenir cette espèce et le genre Amatitlania seul ou en compagnie d'autres espèces, d'autres genres, mais de provenance similaire, afin d'éviter toute facilité de croisement. Le commerce aquariophile a également vu apparaitre un grand nombre de spécimens provenant d'Asie notamment et aux couleurs des plus farfelues ou albinos. En raison de la sélection, hybridation et autres procédés chimiques et barbares de laboratoires.
 </t>
